--- a/dist/document/dest/2020/10/doctors/120.xlsx
+++ b/dist/document/dest/2020/10/doctors/120.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>120</v>
       </c>
-      <c r="C2" s="1">
-        <v>621000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>56</v>
       </c>
-      <c r="C3" s="1">
-        <v>244720</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>55</v>
       </c>
-      <c r="C4" s="1">
-        <v>417450</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>23000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1161</v>
       </c>
-      <c r="C6" s="1">
-        <v>6675750</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>90</v>
       </c>
-      <c r="C7" s="1">
-        <v>673200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>390</v>
       </c>
-      <c r="C8" s="1">
-        <v>3003000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>180</v>
       </c>
-      <c r="C9" s="1">
-        <v>952200</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>225</v>
       </c>
-      <c r="C10" s="1">
-        <v>736875</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>345</v>
       </c>
-      <c r="C11" s="1">
-        <v>2580600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>231</v>
       </c>
-      <c r="C12" s="1">
-        <v>1905750</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>422</v>
       </c>
-      <c r="C13" s="1">
-        <v>1576170</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="1">
-        <v>87400</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>128</v>
       </c>
-      <c r="C15" s="1">
-        <v>1253120</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>45</v>
       </c>
-      <c r="C16" s="1">
-        <v>321750</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>495</v>
       </c>
-      <c r="C17" s="1">
-        <v>6942375</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="1">
-        <v>429000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>120</v>
       </c>
-      <c r="C19" s="1">
-        <v>2046000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>180</v>
       </c>
-      <c r="C20" s="1">
-        <v>1782000</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>80</v>
       </c>
-      <c r="C21" s="1">
-        <v>1056000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>525</v>
       </c>
-      <c r="C22" s="1">
-        <v>1811250</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>120</v>
       </c>
-      <c r="C23" s="1">
-        <v>379200</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>285</v>
       </c>
-      <c r="C24" s="1">
-        <v>3072300</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>319</v>
       </c>
-      <c r="C25" s="1">
-        <v>2175580</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>358</v>
       </c>
-      <c r="C26" s="1">
-        <v>6182660</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>345</v>
       </c>
-      <c r="C27" s="1">
-        <v>1190250</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>210</v>
       </c>
-      <c r="C28" s="1">
-        <v>1694700</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>180</v>
       </c>
-      <c r="C29" s="1">
-        <v>1184400</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
-        <v>18000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>575</v>
       </c>
-      <c r="C31" s="1">
-        <v>1917625</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>164</v>
       </c>
-      <c r="C32" s="1">
-        <v>1082400</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>120</v>
       </c>
-      <c r="C33" s="1">
-        <v>1386000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>75</v>
       </c>
-      <c r="C34" s="1">
-        <v>362250</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>300</v>
       </c>
-      <c r="C35" s="1">
-        <v>897000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>315</v>
       </c>
-      <c r="C36" s="1">
-        <v>1630125</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>1613</v>
       </c>
-      <c r="C37" s="1">
-        <v>4822870</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>231</v>
       </c>
-      <c r="C38" s="1">
-        <v>796950</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>30</v>
       </c>
-      <c r="C39" s="1">
-        <v>271350</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>150</v>
       </c>
-      <c r="C40" s="1">
-        <v>858000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>120</v>
       </c>
-      <c r="C41" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>180</v>
       </c>
-      <c r="C42" s="1">
-        <v>683100</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>30</v>
       </c>
-      <c r="C43" s="1">
-        <v>174900</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>60</v>
       </c>
-      <c r="C44" s="1">
-        <v>739200</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>40</v>
       </c>
-      <c r="C45" s="1">
-        <v>704000</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>808</v>
       </c>
-      <c r="C46" s="1">
-        <v>2880520</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>60</v>
       </c>
-      <c r="C47" s="1">
-        <v>702000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>130</v>
       </c>
-      <c r="C48" s="1">
-        <v>1258400</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>210</v>
       </c>
-      <c r="C49" s="1">
-        <v>1159200</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>54</v>
       </c>
-      <c r="C50" s="1">
-        <v>873180</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>254</v>
       </c>
-      <c r="C51" s="1">
-        <v>1022350</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>900</v>
       </c>
-      <c r="C52" s="1">
-        <v>2898000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>575</v>
       </c>
-      <c r="C53" s="1">
-        <v>2777250</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>42</v>
       </c>
-      <c r="C54" s="1">
-        <v>189420</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>180</v>
       </c>
-      <c r="C55" s="1">
-        <v>117900</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>344</v>
       </c>
-      <c r="C56" s="1">
-        <v>2270400</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>120</v>
       </c>
-      <c r="C57" s="1">
-        <v>690000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>150</v>
       </c>
-      <c r="C58" s="1">
-        <v>1452000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>10</v>
       </c>
-      <c r="C59" s="1">
-        <v>10000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>186</v>
       </c>
-      <c r="C60" s="1">
-        <v>1227600</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>630</v>
       </c>
-      <c r="C62" s="1">
-        <v>9355500</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>718</v>
       </c>
-      <c r="C63" s="1">
-        <v>2889950</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>645</v>
       </c>
-      <c r="C64" s="1">
-        <v>1854375</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>1248</v>
       </c>
-      <c r="C65" s="1">
-        <v>11531520</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>105</v>
       </c>
-      <c r="C66" s="1">
-        <v>1732500</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>300</v>
       </c>
-      <c r="C67" s="1">
-        <v>2145000</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>375</v>
       </c>
-      <c r="C68" s="1">
-        <v>2026875</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>1312</v>
       </c>
-      <c r="C69" s="1">
-        <v>4073760</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>60</v>
       </c>
-      <c r="C70" s="1">
-        <v>1188000</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>30</v>
       </c>
-      <c r="C71" s="1">
-        <v>53400</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>232</v>
       </c>
-      <c r="C72" s="1">
-        <v>1760880</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>666</v>
       </c>
-      <c r="C73" s="1">
-        <v>2757240</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>105</v>
       </c>
-      <c r="C74" s="1">
-        <v>900900</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>165</v>
       </c>
-      <c r="C75" s="1">
-        <v>322575</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>270</v>
       </c>
-      <c r="C76" s="1">
-        <v>652050</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>255</v>
       </c>
-      <c r="C77" s="1">
-        <v>733125</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>80</v>
       </c>
-      <c r="C78" s="1">
-        <v>1496000</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>150</v>
       </c>
-      <c r="C79" s="1">
-        <v>1461900</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>240</v>
       </c>
-      <c r="C80" s="1">
-        <v>1269600</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1274,7 +1037,7 @@
         <v>22477</v>
       </c>
       <c r="C81" s="1">
-        <v>135750340</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/120.xlsx
+++ b/dist/document/dest/2020/10/doctors/120.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,538 +399,739 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Acyclovir 800mg</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B3" s="1">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aleradin (Desloratadine 5mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>55</v>
+        <v>805</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4628750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="1">
+        <v>897600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B6" s="1">
-        <v>1161</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1247400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>90</v>
+        <v>158</v>
+      </c>
+      <c r="C7" s="1">
+        <v>517450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>390</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>157080</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>180</v>
+        <v>255</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1907400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>225</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>345</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="1">
+        <v>392175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Binexmetone (Nabumetone 500mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>231</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>109250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>422</v>
+        <v>185</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2594625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>40</v>
+        <v>204</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3478200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>128</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>45</v>
+        <v>150</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1485000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>495</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>264000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B18" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Cenoxib (Celecoxib 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>382800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B20" s="1">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="C20" s="1">
+        <v>474000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
       </c>
       <c r="B21" s="1">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1617000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>525</v>
+        <v>239</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1629980</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cigenol</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>518100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>285</v>
+        <v>210</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3626700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>319</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="1">
+        <v>131100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>358</v>
+        <v>210</v>
+      </c>
+      <c r="C26" s="1">
+        <v>700350</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>345</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>528000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Depakine Chrono 500mg (Natri valproat)</v>
+        <v>Espacox (Celecoxib 200mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>210</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Europlin (Amitriptyline 25mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>180</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C30" s="1">
+        <v>538200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B31" s="1">
-        <v>575</v>
+        <v>106</v>
+      </c>
+      <c r="C31" s="1">
+        <v>548550</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>164</v>
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>179400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Espacox (Celecoxib 200mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>120</v>
+        <v>1252</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3743480</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Europlin (Amitriptyline 25mg)</v>
+        <v>Gabena (Olanzapine 10mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="C34" s="1">
+        <v>379500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Galvus 50mg (Vildagliptin)</v>
       </c>
       <c r="B35" s="1">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>271350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>315</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="1">
+        <v>686400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>1613</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Homan (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>231</v>
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>369600</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Galvus 50mg (Vildagliptin)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B39" s="1">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1302400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>150</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>792000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B41" s="1">
-        <v>120</v>
+        <v>462</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1647030</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
       </c>
       <c r="B42" s="1">
-        <v>180</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>290400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
       </c>
       <c r="B43" s="1">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1306800</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Homan (Ursodeoxycholic 300mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C44" s="1">
+        <v>496800</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B45" s="1">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>323400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Mageum (Magnesium Valproate 200mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>808</v>
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>56350</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin1000mg)</v>
+        <v>Mageum (Magnesium Valproate 200mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>522</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2101050</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>130</v>
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45080</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>210</v>
+        <v>591</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1903020</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B50" s="1">
-        <v>54</v>
+        <v>254</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1226820</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Mageum (Magnesium Valproate 200mg)</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B51" s="1">
-        <v>254</v>
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>49610</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Meloflam (meloxicam 15mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>900</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Nevol (Nebivolol 2.5mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>575</v>
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>120750</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Nifedipin 20</v>
       </c>
       <c r="B54" s="1">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>19650</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Nifedipin 20</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>180</v>
+        <v>134</v>
+      </c>
+      <c r="C55" s="1">
+        <v>884400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Nykob (Olanzapin 10mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>344</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="1">
+        <v>156750</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Originko (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>871200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
+        <v>Pantonix (Pantoprazole 40mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="C58" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Philiver (Carduus, vitamin..)</v>
       </c>
       <c r="B59" s="1">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C59" s="1">
+        <v>181125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Prepentin (Pregabalin 75mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>186</v>
+        <v>304</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4514400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Reinal (Flunarizil 10mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C61" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>630</v>
+        <v>489</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4518360</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Promag (Magnesium Valproate 200mg)</v>
+        <v>Reprat (Pantoprazole 40mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>718</v>
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Reinal (Flunarizil 10mg)</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>645</v>
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>50050</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>1248</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>371800</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Reprat (Pantoprazole 40mg)</v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="C66" s="1">
+        <v>648600</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Strecalis (Eperisone 50mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>300</v>
+        <v>60</v>
+      </c>
+      <c r="C67" s="1">
+        <v>186300</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Strecalis (Eperisone 50mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>375</v>
+        <v>21</v>
+      </c>
+      <c r="C68" s="1">
+        <v>65205</v>
       </c>
     </row>
     <row r="69">
@@ -938,111 +1139,103 @@
         <v>Strecalis (Eperisone 50mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>1312</v>
+        <v>885</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2747925</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Telod (Telmisartan 40mg)</v>
       </c>
       <c r="B70" s="1">
         <v>60</v>
       </c>
+      <c r="C70" s="1">
+        <v>455400</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Tegretol 200(Carbamazepine)</v>
+        <v>Timiroitin</v>
       </c>
       <c r="B71" s="1">
-        <v>30</v>
+        <v>420</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1738800</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Trisova (Trimetazidine 20mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>232</v>
+        <v>45</v>
+      </c>
+      <c r="C72" s="1">
+        <v>87975</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Timiroitin</v>
+        <v>Tyrozet (Metformin 850mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>666</v>
+        <v>60</v>
+      </c>
+      <c r="C73" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Torleva (Levetiracetam 250mg)</v>
+        <v>Verist (Betahistine 16mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>105</v>
+        <v>214</v>
+      </c>
+      <c r="C74" s="1">
+        <v>615250</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Vinaflam (Cefuroxime 500mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>165</v>
+        <v>40</v>
+      </c>
+      <c r="C75" s="1">
+        <v>748000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
       </c>
       <c r="B76" s="1">
-        <v>270</v>
+        <v>90</v>
+      </c>
+      <c r="C76" s="1">
+        <v>476100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B77" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
-      </c>
-      <c r="B78" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
-      </c>
-      <c r="B79" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
-      </c>
-      <c r="B80" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B81" s="1">
-        <v>22477</v>
-      </c>
-      <c r="C81" s="1">
-        <v>NaN</v>
+        <v>11351</v>
+      </c>
+      <c r="C77" s="1">
+        <v>68818540</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C77"/>
   </ignoredErrors>
 </worksheet>
 </file>